--- a/results/BruteForce.xlsx
+++ b/results/BruteForce.xlsx
@@ -9,13 +9,18 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="215">
+  <si>
+    <t>Individual representation in this table: Targets separated by comma should be in the same cluster; clusters are seperated by space.
+#For example: "1,3 2,5 4" means that targets 1 and 3 should be clustered together, targets 2 and 5 should also be clustered, and target 4 is separate</t>
+  </si>
   <si>
     <t>Brute Force</t>
   </si>
@@ -29,6 +34,15 @@
     <t>Test error</t>
   </si>
   <si>
+    <t>Training individual:</t>
+  </si>
+  <si>
+    <t>Test Individual:</t>
+  </si>
+  <si>
+    <t>Number of potential partitions</t>
+  </si>
+  <si>
     <t>oes10</t>
   </si>
   <si>
@@ -41,16 +55,19 @@
     <t>rf1</t>
   </si>
   <si>
-    <t>Training individual: 1,2 3,4 5,7 6,8</t>
-  </si>
-  <si>
-    <t>Test Individual: 1,2,3,4,5,6,7,8;</t>
+    <t>1,2 3,4 5,7 6,8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8;</t>
   </si>
   <si>
     <t>rf2</t>
   </si>
   <si>
-    <t>RUNNING</t>
+    <t>1,2 3,4 5,6 7,8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
   </si>
   <si>
     <t>scm1d</t>
@@ -62,7 +79,589 @@
     <t>water-quality</t>
   </si>
   <si>
-    <t>RUNNING CLUSTER 95 partitions – 2millions of solutions per chunk – HashTable implemented</t>
+    <t>1 2 3 4 5 6 7 8 9 10 11 12 13 14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,8,13 10,11,12,14</t>
+  </si>
+  <si>
+    <t>The best training individual is</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>The best test individual is</t>
+  </si>
+  <si>
+    <t>1,2,5,6,9 3,4,7,8,13 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6 7 8 9 10 11 12,13 14</t>
+  </si>
+  <si>
+    <t>1,4,5,8,9 2,6,7,10,13 3,11,12,14</t>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6 7 8 9 10 11 12,14 13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,8,10 11,12,13,14</t>
+  </si>
+  <si>
+    <t>1,12 2 3 4 5 6 7 8 9 10 11,13 14</t>
+  </si>
+  <si>
+    <t>1,2,5,8,9 3,4,7,10,13 6,11,12,14</t>
+  </si>
+  <si>
+    <t>1,11 2 3 4 5 6 7 8 9 10 12,14 13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10 5,6,7,8,13 9,11,12,14</t>
+  </si>
+  <si>
+    <t>1,12 2 3 4 5 6 7 8 9 10 11,14 13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,8,13 9 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1,13 2 3 4 5 6 7 8 9 10 11,14 12</t>
+  </si>
+  <si>
+    <t>1,2,4,8,9 3,11,12,14 5,6,7,10,13</t>
+  </si>
+  <si>
+    <t>1,10,11,12 2 3 4 5 6 7 8 9 13 14</t>
+  </si>
+  <si>
+    <t>1,2,3,4 5,6,7,8,9 10,11,12,14 13</t>
+  </si>
+  <si>
+    <t>1,11,12,13 2 3 4 5 6 7 8 9 10 14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,8,10,13 7,11,12,14</t>
+  </si>
+  <si>
+    <t>1,11,12,14 2 3 4 5 6 7 8 9 10 13</t>
+  </si>
+  <si>
+    <t>1,2,5,8,9 3,4,6,10,13 7,11,12,14</t>
+  </si>
+  <si>
+    <t>1,10,13,14 2 3 4 5 6 7 8 9 11 12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,7,8,14 6,10,11,12,13</t>
+  </si>
+  <si>
+    <t>1,11,13,14 2 3 4 5 6 7 8 9 10 12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,8,9,10,13 7,11,12,14</t>
+  </si>
+  <si>
+    <t>1,12,13,14 2 3 4 5 6 7 8 9 10 11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5 6,7,8,13 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1,9,10,11 2 3 4 5 6 7 8 12,13 14</t>
+  </si>
+  <si>
+    <t>1,2,3,4 5,6,7,8,9 10,11,13,14 12</t>
+  </si>
+  <si>
+    <t>1,9,10,12 2 3 4 5 6 7 8 11,13 14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,10,13 8,11,12,14</t>
+  </si>
+  <si>
+    <t>1,10,11,12 2,13 3 4 5 6 7 8 9 14</t>
+  </si>
+  <si>
+    <t>1,2,5,6,10 3,4,7,8,13 9,11,12,14</t>
+  </si>
+  <si>
+    <t>1,9,10,11 2 3 4 5 6 7 8 12,14 13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,8,13 7 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1,9,10,12 2 3 4 5 6 7 8 11,14 13</t>
+  </si>
+  <si>
+    <t>1,2,6,7,10,11,14 3,4,5,8,9 12,13</t>
+  </si>
+  <si>
+    <t>1,9,11,12 2 3 4 5 6 7 8 10,14 13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,8,10,13 9,11,12,14</t>
+  </si>
+  <si>
+    <t>1,10,11,12 2,14 3 4 5 6 7 8 9 13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,11,14 5,6,7,8,9 12,13</t>
+  </si>
+  <si>
+    <t>1,9,11,13 2 3 4 5 6 7 8 10,14 12</t>
+  </si>
+  <si>
+    <t>1,2,4,8,9 3,5,6,13 7 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1,10,11,13 2,14 3 4 5 6 7 8 9 12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,11,12,14 5,6,7,8,9 13</t>
+  </si>
+  <si>
+    <t>1,10,12,13 2,14 3 4 5 6 7 8 9 11</t>
+  </si>
+  <si>
+    <t>1,2,3,4 5,6,7,8,9 10,12,13,14 11</t>
+  </si>
+  <si>
+    <t>1,11,12,13 2,14 3 4 5 6 7 8 9 10</t>
+  </si>
+  <si>
+    <t>1,2,4,8,9 3,5,6,7 10,11,13,14 12</t>
+  </si>
+  <si>
+    <t>1,8,9,11 2,12 3,13 4 5 6 7 10 14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10 5,7,8,13 6,11,12,14 9</t>
+  </si>
+  <si>
+    <t>1,9,10,11 2,12 3,13 4 5 6 7 8 14</t>
+  </si>
+  <si>
+    <t>1,2,5,6,9 3,4,7,10,13 8,11,12,14</t>
+  </si>
+  <si>
+    <t>1,7,10,11 2,12 3,14 4 5 6 8 9 13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,7,8,10 6,11,12,14 13</t>
+  </si>
+  <si>
+    <t>1,9,10,11 2,12 3,14 4 5 6 7 8 13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,9,10,13 8,11,12,14</t>
+  </si>
+  <si>
+    <t>1 2,10 3 4 5,7,9,14 6 8,13 11 12</t>
+  </si>
+  <si>
+    <t>1,2,4,5,7 3,6,8,13 9 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1,9,10,11 2,13 3,14 4 5 6 7 8 12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,13 8 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1 2,12 3,6 4 5 7,9,13,14 8 10 11</t>
+  </si>
+  <si>
+    <t>1,2,3,4 5,6,7,8,10 9,11,12,14 13</t>
+  </si>
+  <si>
+    <t>1,8,10,12 2,13 3,14 4 5 6 7 9 11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10 5,6,8,13 7,11,12,14 9</t>
+  </si>
+  <si>
+    <t>1,9,10,12 2,13 3,14 4 5 6 7 8 11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,7,8,13 6,10,12,14 11</t>
+  </si>
+  <si>
+    <t>1,7,11,12 2,13 3,14 4 5 6 8 9 10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,8,13 7 9 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1,9,11,12 2,13 3,14 4 5 6 7 8 10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,8,10 7,11,12,14 13</t>
+  </si>
+  <si>
+    <t>1,10,11,12 2,13 3,14 4 5 6 7 8 9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,8,10 11,12,14 13</t>
+  </si>
+  <si>
+    <t>1,7,10,11 2 3 4 5 6 8 9,12,13,14</t>
+  </si>
+  <si>
+    <t>1,2,4,8,10 3,5,6,13 7,11,12,14 9</t>
+  </si>
+  <si>
+    <t>1,9,10,11 2,12,13,14 3 4 5 6 7 8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,8,10 11,13,14 12</t>
+  </si>
+  <si>
+    <t>1,5,9,10 2,11,12,13 3 4 6 7 8 14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,8,13 9,10,12,14 11</t>
+  </si>
+  <si>
+    <t>1,8,9,10 2,11,12,13 3 4 5 6 7 14</t>
+  </si>
+  <si>
+    <t>1,2,3,4 5,6,7,8,9 10,11,12,13 14</t>
+  </si>
+  <si>
+    <t>1 2,4,10,11 3 5 6,9,12,14 7 8 13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,8,13 7,10,12,14 11</t>
+  </si>
+  <si>
+    <t>1,8,9,10 2,11,12,14 3 4 5 6 7 13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,7,8,10 6,11,13,14 12</t>
+  </si>
+  <si>
+    <t>1,7,8,9 2,11,13,14 3 4 5 6 10 12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,10,13 8,11,12,14 9</t>
+  </si>
+  <si>
+    <t>1,6,8,10 2,11,13,14 3 4 5 7 9 12</t>
+  </si>
+  <si>
+    <t>1,2,3,4 5,6,7,8,10 9,11,13,14 12</t>
+  </si>
+  <si>
+    <t>1,7,9,10 2,11,13,14 3 4 5 6 8 12</t>
+  </si>
+  <si>
+    <t>1,2,3,8,9 4,5,10,13 6,11,12,14 7</t>
+  </si>
+  <si>
+    <t>1,8,9,10 2,11,13,14 3 4 5 6 7 12</t>
+  </si>
+  <si>
+    <t>1,2,3,8,9 4,7,10,13 5 6,11,12,14</t>
+  </si>
+  <si>
+    <t>1,7,8,9 2,12,13,14 3 4 5 6 10 11</t>
+  </si>
+  <si>
+    <t>1,2,6,7,10,11,14 3,4,5,8,9 12 13</t>
+  </si>
+  <si>
+    <t>1,8,9,10 2,12,13,14 3 4 5 6 7 11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,8,10 9,11,13,14 12</t>
+  </si>
+  <si>
+    <t>1,5,8,11 2,12,13,14 3 4 6 7 9 10</t>
+  </si>
+  <si>
+    <t>1,2,4,8,9 3,5,6,13 7,10,12,14 11</t>
+  </si>
+  <si>
+    <t>1,7,9,11 2,12,13,14 3 4 5 6 8 10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8 9 10,11,12,14 13</t>
+  </si>
+  <si>
+    <t>1,8,9,11 2,12,13,14 3 4 5 6 7 10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,8,10 7,11,13,14 12</t>
+  </si>
+  <si>
+    <t>1,8,10,11 2,12,13,14 3 4 5 6 7 9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10 5,6,7,13 8,11,12,14 9</t>
+  </si>
+  <si>
+    <t>1,7,8,9 2,10,11,12 3,13 4 5 6 14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,8,9 10,12,13,14 11</t>
+  </si>
+  <si>
+    <t>1 2,5,10,11 3 4 6 7,8,9,12 13,14</t>
+  </si>
+  <si>
+    <t>1,2,3,8,9 4,6,10,13 5,11,12,14 7</t>
+  </si>
+  <si>
+    <t>1,7 2 3 4 5,8,9,10 6,11,12,14 13</t>
+  </si>
+  <si>
+    <t>1,2,4,5,9 3,6,7,13 8 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1,6,8,9 2,10,11,13 3 4,14 5 7 12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5 6,7,10,13 8,11,12,14</t>
+  </si>
+  <si>
+    <t>1,7,8,9 2,10,11,13 3,14 4 5 6 12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,8,10,13 6,11,12,14 7</t>
+  </si>
+  <si>
+    <t>1,12,13,14 2,4,8,10 3 5,7 6 9 11</t>
+  </si>
+  <si>
+    <t>1,2,7,8,9 3,6,10,13 4,11,12,14 5</t>
+  </si>
+  <si>
+    <t>1,2,7,10 3,12,13,14 4,9 5 6 8 11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,10 8,11,12,14 13</t>
+  </si>
+  <si>
+    <t>1 2 3 4,5,10,12 6,8,9,13 7 11,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10,11,12,13 5,6,7,8,9 14</t>
+  </si>
+  <si>
+    <t>1,7,8,9 2,10,12,13 3,14 4 5 6 11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,10,13 7 8,11,12,14</t>
+  </si>
+  <si>
+    <t>1,5,7,8 2,11,12,13 3 4 6,14 9 10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,13 8,10,12,14 11</t>
+  </si>
+  <si>
+    <t>1,6,7,9 2,11,12,13 3 4,14 5 8 10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8 9 10,11,13,14 12</t>
+  </si>
+  <si>
+    <t>1,6,8,9 2,11,12,13 3 4,14 5 7 10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,9,10,13 7 8,11,12,14</t>
+  </si>
+  <si>
+    <t>1,7,8,9 2,11,12,13 3,14 4 5 6 10</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,13 8 9 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1,7 2 3,4,11,12 5 6 8,10,13,14 9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,10,13 8,9,12,14 11</t>
+  </si>
+  <si>
+    <t>1,2,12,13 3 4,8 5 6,10,11,14 7 9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,10 8,11,13,14 12</t>
+  </si>
+  <si>
+    <t>1,6,8,10 2,11,12,13 3 4,14 5 7 9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6 7,9,10,13 8,11,12,14</t>
+  </si>
+  <si>
+    <t>1,7,8,10 2,11,12,13 3,14 4 5 6 9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,8,13 7,10,12,14 9 11</t>
+  </si>
+  <si>
+    <t>1,5,9,10 2,11,12,13 3,14 4 6 7 8</t>
+  </si>
+  <si>
+    <t>1,2,4,8,10 3,5,6,7 9 11,12,13,14</t>
+  </si>
+  <si>
+    <t>1 2 3,6 4,10,11,12 5,9,13,14 7 8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,8,9 10,11,12,13 14</t>
+  </si>
+  <si>
+    <t>1,7,9,10 2,11,12,13 3,14 4 5 6 8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,8,10 11,12,13 14</t>
+  </si>
+  <si>
+    <t>1,12,13,14 2 3 4 5,7,10,11 6,9 8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,7,8,10 6,11,12,13 14</t>
+  </si>
+  <si>
+    <t>1,8,9,10 2,11,12,13 3,14 4 5 6 7</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,8,10 11 12,14 13</t>
+  </si>
+  <si>
+    <t>1,6,7,8 2,9,10,11 3 4,13 5 12,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4 5,6,7,8,10 9,11,12,13 14</t>
+  </si>
+  <si>
+    <t>1,5,7,8 2,9,10,12 3 4 6,13 11,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,10 8,11,12,14 9 13</t>
+  </si>
+  <si>
+    <t>1 2,4 3,7,9,11 5,8 6 10,12,13,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,8,13 10 11 12,14</t>
+  </si>
+  <si>
+    <t>1,6,9,11 2,7 3 4,8,12,13 5 10,14</t>
+  </si>
+  <si>
+    <t>1,2,3,5,9 4,7,10,13 6 8,11,12,14</t>
+  </si>
+  <si>
+    <t>1,2,10,11 3 4 5,8,12,14 6,7 9,13</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,10,13 8,9,11,14 12</t>
+  </si>
+  <si>
+    <t>1 2,7 3 4,5,10,11 6,8 9,12,13,14</t>
+  </si>
+  <si>
+    <t>1,2,6,7,10,11,12 3,4,5,8,9 13 14</t>
+  </si>
+  <si>
+    <t>1 2,7 3 4,8 5,6,10,11 9,12,13,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,13 8,9,12,14 10 11</t>
+  </si>
+  <si>
+    <t>1,5,7,9 2,11,12,13 3 4 6,10 8,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,10,13 7 8,11,12,14 9</t>
+  </si>
+  <si>
+    <t>1,6,7,9 2,10,11,12 3 4,13 5 8,14</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,10,13 6,7,8,14 11 12</t>
+  </si>
+  <si>
+    <t>1,3,8,10 2,11,12,13 4,14 5 6 7,9</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,10,11 6,7,8,14 12 13</t>
+  </si>
+  <si>
+    <t>1,5,10,11 2,8 3,12,13,14 4 6,9 7</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,8 7,10,12,14 11 13</t>
+  </si>
+  <si>
+    <t>1,6,8,9 2,10,11,12 3 4,13 5 7,14</t>
+  </si>
+  <si>
+    <t>1,2,6,7,10,11,13 3,4,5,8,9 12 14</t>
+  </si>
+  <si>
+    <t>1,9 2,12,13,14 3 4 5,6 7,8,10,11</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,9,13 7 8 10,11,12,14</t>
+  </si>
+  <si>
+    <t>1,7,8,9 2,10,11,12 3 4,13 5,14 6</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,7,10 8,11,12,13 14</t>
+  </si>
+  <si>
+    <t>1,12,13,14 2,9,10,11 3,8 4 5 6,7</t>
+  </si>
+  <si>
+    <t>1,2,5,8,10 3,4,13 6,11,12,14 7 9</t>
+  </si>
+  <si>
+    <t>1,5,6,7 2,9,10,11 3,12,13,14 4 8</t>
+  </si>
+  <si>
+    <t>1,2,3,4,9 5,6,10 7 8,11,12,14 13</t>
+  </si>
+  <si>
+    <t>1,5,6,8 2,9,10,11 3,12,13,14 4 7</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,10,11 8,9,12,13 14</t>
+  </si>
+  <si>
+    <t>1,9,10,11 2,12,13,14 3,4,7,8 5 6</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5 6,7,8,9,10,11,12 13 14</t>
+  </si>
+  <si>
+    <t>1,6,7,8 2,9,10,11 3,12,13,14 4 5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,8,10 7,9,12,13 11 14</t>
+  </si>
+  <si>
+    <t>1,9,10,11 2,6,7,8 3,12,13,14 4 5</t>
+  </si>
+  <si>
+    <t>1,2,3,4,10 5,6,7,8,11 9 12,13 14</t>
+  </si>
+  <si>
+    <t>1,6,7,8 2,9,10,11 3,12,13,14 4,5</t>
+  </si>
+  <si>
+    <t>1,2,3,4 5,6,7,8,9 10,11,12 13 14</t>
+  </si>
+  <si>
+    <t>1,2,10,11 3,7,9,12 4,8,13,14 5,6</t>
   </si>
 </sst>
 </file>
@@ -145,9 +744,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -171,54 +774,79 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B6:I17"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.7142857142857"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.3877551020408"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="80.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>4</v>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="I11" s="1" t="n">
+        <v>10480142147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>6</v>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>10480142147</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>7</v>
+      <c r="B13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0.10835</v>
@@ -227,42 +855,91 @@
         <v>21.26382499999</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>4140</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>14</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.1162</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>21.256375</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1" t="n">
+        <v>10480142147</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>10480142147</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>15</v>
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0.192</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0.851564285714286</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>190899322</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -274,4 +951,2531 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:L96"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9540816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.234693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>0.851564285714286</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0.861935714285714</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0.200964285714286</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.866307142857143</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>0.200964285714286</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>0.87035</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <v>0.209928571428571</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>0.87045</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>0.209928571428571</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0.872314285714286</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>0.209928571428571</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.874507142857143</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0.209928571428571</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>0.874935714285714</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <v>0.21595</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.875371428571428</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <v>0.21595</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.875914285714286</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <v>0.21595</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0.878321428571429</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <v>0.21595</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>0.878328571428571</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <v>0.21595</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0.878978571428571</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <v>0.21595</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.8804</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.881157142857143</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.882578571428571</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>0.882685714285714</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0.882807142857143</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0.883785714285714</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>0.883892857142857</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>0.884114285714286</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>0.88575</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.887885714285714</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.888914285714286</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0.224914285714286</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.892078571428572</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.892414285714286</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.89295</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.894814285714286</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0.894814285714286</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0.894935714285714</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0.895478571428571</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>0.896121428571429</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>0.896135714285714</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.896778571428571</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.897714285714286</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.898535714285714</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>0.233878571428571</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.89875</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.899078571428571</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.899185714285714</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.899621428571428</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.89995</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.9005</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0.9006</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>0.900714285714285</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.901907142857143</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.902014285714285</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="K46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.903221428571428</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.903442857142857</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.903442857142857</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.903442857142857</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.903935714285714</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.904321428571429</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>0.2399</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.904978571428571</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>0.905521428571429</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>0.905628571428571</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>0.906292857142857</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.906607142857143</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.906935714285714</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.906942857142857</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0.907378571428572</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0.907435714285714</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0.909014285714286</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="K62" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0.909342857142857</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="K63" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0.909721428571429</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>0.910978571428571</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>0.912892857142857</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.913164285714286</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="K67" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0.913164285714286</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="K68" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0.91535</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="K69" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0.915407142857143</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K70" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0.916221428571429</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0.916557142857143</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0.918735714285714</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="K73" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0.919392857142857</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="K74" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>0.248864285714286</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0.919607142857143</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>0.9207</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="K76" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>0.921078571428571</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>0.92135</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="K78" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>0.922121428571428</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="K79" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>0.922235714285714</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="K80" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0.923435714285714</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="K81" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="D82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>0.925442857142857</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="K82" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>0.925778571428572</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="K83" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>0.926478571428571</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="K84" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>0.927028571428571</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="K85" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="D86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>0.927142857142857</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="K86" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>0.927471428571429</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="K87" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>0.931457142857143</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="K88" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>0.931957142857143</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="K89" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <v>0.257828571428571</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>0.932921428571428</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="K90" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <v>0.26385</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>0.936528571428572</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="K91" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <v>0.26385</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>0.94255</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="K92" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <v>0.26385</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0.945942857142857</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="K93" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <v>0.26385</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="D94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>0.946757142857143</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="K94" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <v>0.26385</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>0.949978571428571</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="K95" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <v>0.272814285714286</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>0.950735714285714</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="K96" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <v>0.272814285714286</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/results/BruteForce.xlsx
+++ b/results/BruteForce.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35620" windowHeight="17440" tabRatio="993"/>
+    <workbookView xWindow="3940" yWindow="3920" windowWidth="35620" windowHeight="17440" tabRatio="993"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/results/BruteForce.xlsx
+++ b/results/BruteForce.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="988" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
   <si>
     <t xml:space="preserve">3/5: For the implementation I used the ideas from https://www.cs.bgu.ac.il/~orlovm/papers/partitions.pdf to generate the set partitions efficiently!</t>
   </si>
@@ -167,10 +167,70 @@
     <t xml:space="preserve">VAL ERROR</t>
   </si>
   <si>
+    <t xml:space="preserve">Best Training Individuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Test Individuals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 2 2 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 2 2 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 2 1 1 1 1 2 2 2 2 2 2 2 ;; 1 1 2 2 3 3 4 4 5 5 6 6 7 7 8 8 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 2 2 2 ;; 1 1 1 1 2 2 2 2 3 3 3 3 4 4 4 4 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 2 2 2 ;; 1 1 1 2 1 2 2 2 1 1 1 1 2 2 2 2 ;; 1 1 1 2 2 1 1 1 1 2 2 1 2 2 2 2 ;; 1 1 1 2 1 1 1 1 1 2 2 2 2 2 2 2 ;; 1 1 1 2 2 1 1 1 1 1 2 2 2 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 2 2 2 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 2 2 2 3 2 2 2 3 ;; 1 1 1 1 1 1 1 1 2 2 2 3 4 4 4 4 ;; 1 1 1 1 1 1 1 1 2 2 2 1 2 2 2 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 2 2 2 3 2 3 3 2 ;; 1 1 1 1 1 1 1 1 2 2 2 3 1 3 3 3 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 1 1 1 1 1 1 1 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 15 16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 2 2 2 2 3 1 2 3 3 3 ;; 1 1 1 1 1 1 1 2 2 2 2 2 2 2 ;; 1 1 1 1 1 2 2 3 2 2 3 3 3 3 ;; 1 1 1 1 1 2 2 2 2 1 1 2 2 2 ;; 1 1 2 1 3 2 2 3 3 1 2 2 3 3 ;; 1 1 2 1 1 2 2 3 3 1 2 2 3 3 ;; 1 1 1 1 1 2 2 2 2 2 3 3 3 3 ;; 1 1 1 1 2 2 1 2 2 2 3 3 3 3 ;; 1 1 1 1 1 2 2 2 2 3 3 3 3 3 ;; 1 1 1 1 1 2 2 2 2 2 3 3 3 3 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 2 2 2 2 3 1 3 3 2 3 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;[0] ****\n</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRAIN-VAL</t>
   </si>
   <si>
     <t xml:space="preserve">TEST ERROR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 2 2 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 2 2 ;[1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 1 1 1 1 1 1 1 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;[1] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;[1] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;; 1 2 3 4 5 6 7 8 ;[1] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 2 2 2 2 3 1 2 3 3 3 ;; 1 1 1 1 1 1 1 2 2 2 2 2 2 2 ;; 1 1 1 1 1 2 2 3 2 2 3 3 3 3 ;; 1 1 1 1 1 2 2 2 2 1 1 2 2 2 ;; 1 1 2 1 3 2 2 3 3 1 2 2 3 3 ;; 1 1 2 1 1 2 2 3 3 1 2 2 3 3 ;; 1 1 1 1 1 2 2 2 2 2 3 3 3 3 ;; 1 1 1 1 2 2 1 2 2 2 3 3 3 3 ;; 1 1 1 1 1 2 2 2 2 3 3 3 3 3 ;; 1 1 1 1 1 2 2 2 2 2 3 3 3 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 2 2 2 2 3 1 3 3 2 3 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;[1] </t>
   </si>
   <si>
     <t xml:space="preserve">WITHOUT PRUNING</t>
@@ -403,19 +463,21 @@
   <dimension ref="B2:M54"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1632653061225"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="11" min="6" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.5918367346939"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="68.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -860,7 +922,7 @@
         <v>1286.290481858</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="9" t="n">
         <v>42592</v>
       </c>
@@ -886,22 +948,34 @@
       <c r="F36" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="G36" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>48.28189</v>
+        <v>57.80229</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>247.909243125</v>
+        <v>298.8189875</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>480.69950875</v>
+        <v>499.45816875</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>253.61631875</v>
+        <v>257.339588125</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,41 +983,71 @@
         <v>16</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>248.34427375</v>
+        <v>250.20336875</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>417.876940625</v>
+        <v>506.033660625</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>694.44447</v>
+        <v>745.321853125</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>396.40792125</v>
+        <v>355.17583875</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C39" s="0" t="n">
+        <v>0.63036875</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>6.68499625</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>81.23847125</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>6.47229</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0.5683025</v>
+        <v>0.64528375</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>5.3052375</v>
+        <v>6.706185</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>81.02635375</v>
+        <v>72.31993</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>5.290275</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6.4946775</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="6" t="s">
         <v>23</v>
       </c>
@@ -953,16 +1057,22 @@
         <v>26</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>30.29945</v>
+        <v>32.77307</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>77.655293125</v>
+        <v>99.173618125</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>293.96548125</v>
+        <v>301.95774125</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>76.184513125</v>
+        <v>78.458145</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,31 +1080,44 @@
         <v>27</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0.804311428571428</v>
+        <v>0.805282142857143</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.889969285714286</v>
+        <v>0.902631428571429</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>0.960689285714286</v>
+        <v>0.961052857142857</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.872181428571428</v>
-      </c>
-    </row>
+        <v>0.881771428571428</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>11</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1013,44 +1136,80 @@
       <c r="F47" s="0" t="n">
         <v>252.60072</v>
       </c>
+      <c r="G47" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H47" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>248.34427375</v>
+        <v>248.692281875</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>486.702450625</v>
+        <v>486.704245</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>747.48596</v>
+        <v>729.04601</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>378.3230375</v>
+        <v>378.521649375</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H48" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C49" s="0" t="n">
+        <v>0.5366425</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>5.4100575</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>81.12135375</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>5.27375375</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="0" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0.5683025</v>
+        <v>0.57962375</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>5.433545</v>
+        <v>5.42545125</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>81.13725875</v>
+        <v>81.1409175</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>5.290275</v>
+        <v>5.290625</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1074,6 +1233,12 @@
       <c r="F52" s="0" t="n">
         <v>76.184513125</v>
       </c>
+      <c r="G52" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H52" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="4" t="s">
@@ -1090,6 +1255,12 @@
       </c>
       <c r="F53" s="0" t="n">
         <v>0.876006428571428</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1100,6 +1271,24 @@
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1124,12 +1313,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63775510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,7 +1345,7 @@
         <v>13</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1164,7 +1353,7 @@
         <v>16</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1178,10 +1367,10 @@
         <v>21.26382499999</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,10 +1384,10 @@
         <v>21.256375</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1206,7 +1395,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1214,7 +1403,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1228,10 +1417,10 @@
         <v>0.851564285714286</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/results/BruteForce.xlsx
+++ b/results/BruteForce.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Regression" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Classification" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="104">
+  <si>
+    <t xml:space="preserve">MAE ERRORS IN THIS STUDY</t>
+  </si>
   <si>
     <t xml:space="preserve">3/5: For the implementation I used the ideas from https://www.cs.bgu.ac.il/~orlovm/papers/partitions.pdf to generate the set partitions efficiently!</t>
   </si>
@@ -231,6 +235,81 @@
   </si>
   <si>
     <t xml:space="preserve">; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 2 2 2 2 3 1 3 3 2 3 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;[1] </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLASSIFICATION DATASETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUCPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test AUCPR of the best training Invidual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training AUCPR of the best test Invidual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of outputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corel5k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 1 1 1 1 2 2 1 3 4 3 4 5 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 1 ;; 1 1 1 1 1 1 1 1 2 3 3 3 3 1 ;; 1 1 1 1 1 1 1 1 2 3 3 1 4 1 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 2 2 3 4 2 2 5 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 2 2 3 2 2 1 2 2 2 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 3 2 4 4 ;; 1 1 2 3 2 4 4 ;; 1 2 3 1 2 3 4 ;; 1 1 2 2 3 3 4 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 3 4 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 3 1 4 3 ;; 1 2 1 1 3 3 1 ;; 1 1 2 2 1 3 2 ;; 1 1 2 2 1 1 1 ;; 1 2 1 3 2 3 1 ;; 1 2 1 2 1 1 2 ;; 1 1 1 1 2 1 2 ;; 1 1 1 2 2 1 2 ;; 1 1 1 2 2 3 3 ;; 1 2 1 1 2 3 3 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediamill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test AUROC of the best training Invidual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training AUROC of the best test Invidual</t>
   </si>
   <si>
     <t xml:space="preserve">WITHOUT PRUNING</t>
@@ -265,7 +344,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -286,6 +365,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FF800000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -333,6 +420,19 @@
       <b val="true"/>
       <i val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -394,7 +494,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -403,7 +503,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -419,27 +519,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -462,79 +578,79 @@
   </sheetPr>
   <dimension ref="B2:M54"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D53" activeCellId="0" sqref="D53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G36" activeCellId="0" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6326530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.1275510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.5918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="30.1479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.4234693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.6989795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.8061224489796"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="68.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>0</v>
+      <c r="B3" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3" t="s">
-        <v>1</v>
+      <c r="B6" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3" t="s">
-        <v>2</v>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="3" t="s">
-        <v>3</v>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="s">
-        <v>13</v>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>47.4021</v>
@@ -543,10 +659,10 @@
         <v>437.437418749999</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>10480142147</v>
@@ -565,8 +681,8 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="s">
-        <v>16</v>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>241.905699999999</v>
@@ -575,10 +691,10 @@
         <v>532.88014375</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>10480142147</v>
@@ -597,20 +713,20 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5" t="n">
+      <c r="B13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="n">
         <v>0.38935</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="6" t="n">
         <v>21.1001875</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="6" t="s">
         <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>4140</v>
@@ -629,8 +745,8 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6" t="s">
-        <v>21</v>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.37515</v>
@@ -638,11 +754,11 @@
       <c r="D14" s="0" t="n">
         <v>21.09225</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>20</v>
+      <c r="E14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>4140</v>
@@ -650,7 +766,7 @@
       <c r="H14" s="0" t="n">
         <v>256</v>
       </c>
-      <c r="I14" s="5" t="n">
+      <c r="I14" s="6" t="n">
         <v>678.824565012</v>
       </c>
       <c r="L14" s="0" t="n">
@@ -661,8 +777,8 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="6" t="s">
-        <v>23</v>
+      <c r="B15" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>21.6791999999999</v>
@@ -671,10 +787,10 @@
         <v>151.66005</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>10480142147</v>
@@ -687,8 +803,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="6" t="s">
-        <v>26</v>
+      <c r="B16" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>25.8607999999999</v>
@@ -697,10 +813,10 @@
         <v>208.48348125</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>10480142147</v>
@@ -719,8 +835,8 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="s">
-        <v>27</v>
+      <c r="B17" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.850014285714286</v>
@@ -729,10 +845,10 @@
         <v>0.776328571428571</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>190899322</v>
@@ -751,53 +867,53 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="7" t="s">
-        <v>30</v>
+      <c r="B21" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="8" t="s">
-        <v>31</v>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="F23" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="s">
-        <v>13</v>
+      <c r="B25" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>69.7691999999999</v>
@@ -806,10 +922,10 @@
         <v>360.02581875</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>10480142147</v>
@@ -822,8 +938,8 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4" t="s">
-        <v>16</v>
+      <c r="B26" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>346.467074999999</v>
@@ -832,10 +948,10 @@
         <v>728.3298125</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>10480142147</v>
@@ -848,21 +964,21 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>38</v>
+      <c r="B27" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="6" t="s">
-        <v>21</v>
+      <c r="B28" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.473799999999999</v>
@@ -870,47 +986,47 @@
       <c r="D28" s="0" t="n">
         <v>21.0327875</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="5"/>
+      <c r="E28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="6" t="s">
-        <v>23</v>
+      <c r="B29" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="6" t="s">
-        <v>26</v>
+      <c r="B30" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="6" t="n">
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="7" t="n">
         <v>0.614028571428571</v>
       </c>
       <c r="D31" s="0" t="n">
         <v>0.9033</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>190899322</v>
@@ -923,41 +1039,41 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="9" t="n">
+      <c r="B34" s="10" t="n">
         <v>42592</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>44</v>
+      <c r="C34" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="10" t="s">
-        <v>45</v>
+      <c r="C35" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="E36" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="s">
-        <v>13</v>
+      <c r="B37" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>57.80229</v>
@@ -972,15 +1088,15 @@
         <v>257.339588125</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4" t="s">
-        <v>16</v>
+      <c r="B38" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>250.20336875</v>
@@ -995,15 +1111,15 @@
         <v>355.17583875</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4" t="s">
-        <v>18</v>
+      <c r="B39" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0.63036875</v>
@@ -1018,15 +1134,15 @@
         <v>6.47229</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="6" t="s">
-        <v>21</v>
+      <c r="B40" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0.64528375</v>
@@ -1041,20 +1157,20 @@
         <v>6.4946775</v>
       </c>
       <c r="G40" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="H40" s="0" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="6" t="s">
-        <v>23</v>
+      <c r="B41" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="6" t="s">
-        <v>26</v>
+      <c r="B42" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>32.77307</v>
@@ -1069,15 +1185,15 @@
         <v>78.458145</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4" t="s">
-        <v>27</v>
+      <c r="B43" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0.805282142857143</v>
@@ -1092,37 +1208,37 @@
         <v>0.881771428571428</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="D46" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E46" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4" t="s">
-        <v>13</v>
+      <c r="B47" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>48.28189</v>
@@ -1137,15 +1253,15 @@
         <v>252.60072</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="4" t="s">
-        <v>16</v>
+      <c r="B48" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>248.692281875</v>
@@ -1160,15 +1276,15 @@
         <v>378.521649375</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="4" t="s">
-        <v>18</v>
+      <c r="B49" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0.5366425</v>
@@ -1183,15 +1299,15 @@
         <v>5.27375375</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="6" t="s">
-        <v>21</v>
+      <c r="B50" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0.57962375</v>
@@ -1206,20 +1322,20 @@
         <v>5.290625</v>
       </c>
       <c r="G50" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="6" t="s">
-        <v>23</v>
+      <c r="B51" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="6" t="s">
-        <v>26</v>
+      <c r="B52" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>30.29945</v>
@@ -1234,15 +1350,15 @@
         <v>76.184513125</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4" t="s">
-        <v>27</v>
+      <c r="B53" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>0.804311428571428</v>
@@ -1257,10 +1373,10 @@
         <v>0.876006428571428</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1305,60 +1421,463 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B3:L58"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.2397959183674"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.4183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.234693877551"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.5051020408163"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.5051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">2^(I12)</f>
+        <v>524288</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">2^(I13)</f>
+        <v>3.84785216761665E+112</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0.9870408</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0.604975816666667</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>0.33253325</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.691865066666666</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">2^(I14)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0.994289</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0.414531835714286</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>0.302904028571428</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0.555385614285714</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="false">2^(I15)</f>
+        <v>16384</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0.851295214285714</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0.685729128571429</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>0.555908514285714</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0.791426157142857</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="false">2^(I16)</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="false">2^(I17)</f>
+        <v>134217728</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="false">2^(I18)</f>
+        <v>2.53530120045646E+030</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="11" t="s">
-        <v>13</v>
+      <c r="B6" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="11" t="s">
-        <v>16</v>
+      <c r="B7" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="11" t="s">
-        <v>18</v>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0.10835</v>
@@ -1367,15 +1886,15 @@
         <v>21.26382499999</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0.1162</v>
@@ -1384,31 +1903,31 @@
         <v>21.256375</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
-        <v>27</v>
+      <c r="B12" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0.192</v>
@@ -1417,10 +1936,10 @@
         <v>0.851564285714286</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/results/BruteForce.xlsx
+++ b/results/BruteForce.xlsx
@@ -240,70 +240,70 @@
     <t xml:space="preserve">CLASSIFICATION DATASETS</t>
   </si>
   <si>
+    <t xml:space="preserve">AUROC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dataset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test AUCPR of the best training Invidual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training AUCPR of the best test Invidual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of outputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corel5k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeast</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 1 1 1 1 1 2 2 1 3 4 3 4 5 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 1 ;; 1 1 1 1 1 1 1 1 2 3 3 3 3 1 ;; 1 1 1 1 1 1 1 1 2 3 3 1 4 1 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 2 2 3 4 2 2 5 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 2 2 3 2 2 1 2 2 2 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 3 2 4 4 ;; 1 1 2 3 2 4 4 ;; 1 2 3 1 2 3 4 ;; 1 1 2 2 3 3 4 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 3 4 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 3 1 4 3 ;; 1 2 1 1 3 3 1 ;; 1 1 2 2 1 3 2 ;; 1 1 2 2 1 1 1 ;; 1 2 1 3 2 3 1 ;; 1 2 1 2 1 1 2 ;; 1 1 1 1 2 1 2 ;; 1 1 1 2 2 1 2 ;; 1 1 1 2 2 3 3 ;; 1 2 1 1 2 3 3 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">genbase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediamill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUCPR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dataset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test AUCPR of the best training Invidual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Training AUCPR of the best test Invidual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of outputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">corel5k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">yeast</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 1 1 1 1 1 2 2 1 3 4 3 4 5 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 1 ;; 1 1 1 1 1 1 1 1 2 3 3 3 3 1 ;; 1 1 1 1 1 1 1 1 2 3 3 1 4 1 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 2 2 3 4 2 2 5 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 2 2 3 2 2 1 2 2 2 ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 3 2 4 4 ;; 1 1 2 3 2 4 4 ;; 1 2 3 1 2 3 4 ;; 1 1 2 2 3 3 4 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 3 4 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 2 3 3 1 4 3 ;; 1 2 1 1 3 3 1 ;; 1 1 2 2 1 3 2 ;; 1 1 2 2 1 1 1 ;; 1 2 1 3 2 3 1 ;; 1 2 1 2 1 1 2 ;; 1 1 1 1 2 1 2 ;; 1 1 1 2 2 1 2 ;; 1 1 1 2 2 3 3 ;; 1 2 1 1 2 3 3 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">genbase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mediamill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AUROC</t>
   </si>
   <si>
     <t xml:space="preserve">Test AUROC of the best training Invidual</t>
@@ -1424,7 +1424,7 @@
   <dimension ref="B3:L58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
+      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1683,8 +1683,8 @@
     </row>
     <row r="31" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="32" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="13" t="s">
+    <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="13" t="s">
         <v>93</v>
       </c>
     </row>

--- a/results/BruteForce.xlsx
+++ b/results/BruteForce.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="118">
   <si>
     <t xml:space="preserve">MAE ERRORS IN THIS STUDY</t>
   </si>
@@ -303,6 +303,24 @@
     <t xml:space="preserve">TEST</t>
   </si>
   <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 2 1 2 2 3 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 1 2 2 2 1 2 3 ;; 1 1 1 1 1 1 1 1 2 1 2 1 1 1 ;; 1 1 1 1 1 1 1 1 2 3 3 1 3 1 ;; 1 1 1 1 1 1 1 1 1 2 2 2 2 3 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 3 ;; 1 1 1 1 1 1 2 2 2 3 3 2 2 2 ;; 1 1 1 1 1 1 1 2 2 2 2 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 4 4 ;; 1 1 2 2 3 4 3 ;; 1 1 2 3 2 4 3 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 4 4 ;; 1 2 3 4 5 6 7 ;[0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 3 3 3 ;; 1 1 2 2 1 3 2 ;; 1 2 3 4 5 6 2 ;; 1 1 1 2 2 1 1 ;; 1 2 1 2 1 1 2 ;; 1 1 1 2 1 3 3 ;; 1 1 1 2 2 1 2 ;; 1 1 1 2 2 3 2 ;; 1 2 1 1 3 2 3 ;; 1 1 2 1 3 4 5 ;</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUCPR</t>
   </si>
   <si>
@@ -310,6 +328,30 @@
   </si>
   <si>
     <t xml:space="preserve">Training AUROC of the best test Invidual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 2 1 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 2 1 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 2 2 3 3 1 2 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 5 4 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 3 4 2 2 3 3 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 2 1 2 2 ;; 1 1 1 2 2 2 ;[0] ****\n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 1 1 4 2 2 3 3 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 2 3 1 4 2 3 4 5 5 1 2 3 4 ;; 1 1 1 2 2 3 3 4 2 3 4 4 5 5 ;; 1 1 1 2 3 2 3 2 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 4 4 5 3 4 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;[0] ****\n</t>
   </si>
   <si>
     <t xml:space="preserve">WITHOUT PRUNING</t>
@@ -340,9 +382,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -494,7 +537,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -551,7 +594,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -584,13 +639,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.4234693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.6989795918367"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.9591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.75"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="68.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1423,21 +1481,21 @@
   </sheetPr>
   <dimension ref="B3:L58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="43.2397959183674"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.234693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.5051020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="24.7295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.5051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.7908163265306"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.6224489795918"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1486,6 +1544,10 @@
       <c r="B12" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
       <c r="I12" s="0" t="n">
         <v>19</v>
       </c>
@@ -1498,6 +1560,10 @@
       <c r="B13" s="0" t="s">
         <v>80</v>
       </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="I13" s="0" t="n">
         <v>374</v>
       </c>
@@ -1510,16 +1576,16 @@
       <c r="B14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="14" t="n">
         <v>0.9870408</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="14" t="n">
         <v>0.604975816666667</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14" s="14" t="n">
         <v>0.33253325</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="14" t="n">
         <v>0.691865066666666</v>
       </c>
       <c r="G14" s="0" t="s">
@@ -1540,16 +1606,16 @@
       <c r="B15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="14" t="n">
         <v>0.994289</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="14" t="n">
         <v>0.414531835714286</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15" s="14" t="n">
         <v>0.302904028571428</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="14" t="n">
         <v>0.555385614285714</v>
       </c>
       <c r="G15" s="0" t="s">
@@ -1570,16 +1636,16 @@
       <c r="B16" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="14" t="n">
         <v>0.851295214285714</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="14" t="n">
         <v>0.685729128571429</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="14" t="n">
         <v>0.555908514285714</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="14" t="n">
         <v>0.791426157142857</v>
       </c>
       <c r="G16" s="0" t="s">
@@ -1600,6 +1666,10 @@
       <c r="B17" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="I17" s="0" t="n">
         <v>27</v>
       </c>
@@ -1612,6 +1682,10 @@
       <c r="B18" s="0" t="s">
         <v>91</v>
       </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
       <c r="I18" s="0" t="n">
         <v>101</v>
       </c>
@@ -1620,20 +1694,38 @@
         <v>2.53530120045646E+030</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="15" t="s">
         <v>77</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -1650,59 +1742,185 @@
       <c r="B23" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
         <v>80</v>
       </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="C25" s="14" t="n">
+        <v>0.988858</v>
+      </c>
+      <c r="D25" s="14" t="n">
+        <v>0.604858733333333</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>0.337348183333333</v>
+      </c>
+      <c r="F25" s="14" t="n">
+        <v>0.697641533333333</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="C26" s="14" t="n">
+        <v>0.9944429</v>
+      </c>
+      <c r="D26" s="14" t="n">
+        <v>0.420568057142857</v>
+      </c>
+      <c r="E26" s="14" t="n">
+        <v>0.308850907142857</v>
+      </c>
+      <c r="F26" s="14" t="n">
+        <v>0.560555621428571</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
         <v>87</v>
       </c>
+      <c r="C27" s="14" t="n">
+        <v>0.863012357142857</v>
+      </c>
+      <c r="D27" s="14" t="n">
+        <v>0.689682228571429</v>
+      </c>
+      <c r="E27" s="14" t="n">
+        <v>0.597549242857143</v>
+      </c>
+      <c r="F27" s="14" t="n">
+        <v>0.811110357142857</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
     <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="13" t="s">
-        <v>93</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>95</v>
+      <c r="E40" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>49</v>
@@ -1719,52 +1937,140 @@
       <c r="B41" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
         <v>80</v>
       </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="C43" s="14" t="n">
+        <v>0.338965466666667</v>
+      </c>
+      <c r="D43" s="14" t="n">
+        <v>0.311827216666667</v>
+      </c>
+      <c r="E43" s="14" t="n">
+        <v>0.311827216666667</v>
+      </c>
+      <c r="F43" s="14" t="n">
+        <v>0.311421883333333</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="C44" s="14" t="n">
+        <v>0.38217515</v>
+      </c>
+      <c r="D44" s="14" t="n">
+        <v>0.302689157142857</v>
+      </c>
+      <c r="E44" s="14" t="n">
+        <v>0.302689157142857</v>
+      </c>
+      <c r="F44" s="14" t="n">
+        <v>0.302648871428571</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>87</v>
       </c>
+      <c r="C45" s="14" t="n">
+        <v>0.7887036</v>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>0.485360485714286</v>
+      </c>
+      <c r="E45" s="14" t="n">
+        <v>0.485360485714286</v>
+      </c>
+      <c r="F45" s="14" t="n">
+        <v>0.484558685714286</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="0" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
         <v>91</v>
       </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>95</v>
+      <c r="E51" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>49</v>
@@ -1780,36 +2086,106 @@
       <c r="B52" s="0" t="s">
         <v>79</v>
       </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
         <v>80</v>
       </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
         <v>81</v>
       </c>
+      <c r="C54" s="14" t="n">
+        <v>0.338960066666667</v>
+      </c>
+      <c r="D54" s="14" t="n">
+        <v>0.311827216666667</v>
+      </c>
+      <c r="E54" s="14" t="n">
+        <v>0.311827216666667</v>
+      </c>
+      <c r="F54" s="14" t="n">
+        <v>0.311416183333333</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="H54" s="0" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="C55" s="14" t="n">
+        <v>0.382174657142857</v>
+      </c>
+      <c r="D55" s="14" t="n">
+        <v>0.302689157142857</v>
+      </c>
+      <c r="E55" s="14" t="n">
+        <v>0.302689157142857</v>
+      </c>
+      <c r="F55" s="14" t="n">
+        <v>0.302648435714286</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="H55" s="0" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
         <v>87</v>
       </c>
+      <c r="C56" s="14" t="n">
+        <v>0.788672</v>
+      </c>
+      <c r="D56" s="14" t="n">
+        <v>0.485360485714286</v>
+      </c>
+      <c r="E56" s="14" t="n">
+        <v>0.485360485714286</v>
+      </c>
+      <c r="F56" s="14" t="n">
+        <v>0.4845451</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
         <v>90</v>
       </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
         <v>91</v>
       </c>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1834,10 +2210,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1860,23 +2239,23 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -1886,10 +2265,10 @@
         <v>21.26382499999</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,10 +2282,10 @@
         <v>21.256375</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1914,7 +2293,7 @@
         <v>24</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1922,11 +2301,11 @@
         <v>27</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -1936,10 +2315,10 @@
         <v>0.851564285714286</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/results/BruteForce.xlsx
+++ b/results/BruteForce.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" state="visible" r:id="rId2"/>
@@ -265,28 +265,28 @@
     <t xml:space="preserve">emotions</t>
   </si>
   <si>
-    <t xml:space="preserve">; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 </t>
+    <t xml:space="preserve">; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;</t>
   </si>
   <si>
     <t xml:space="preserve">yeast</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 1 1 1 1 1 2 2 1 3 4 3 4 5 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 1 ;; 1 1 1 1 1 1 1 1 2 3 3 3 3 1 ;; 1 1 1 1 1 1 1 1 2 3 3 1 4 1 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 2 2 3 4 2 2 5 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 2 2 3 2 2 1 2 2 2 ;</t>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 1 2 2 2 2 3 ;; 1 1 1 1 1 2 3 3 4 5 2 2 2 3 ;; 1 1 1 1 1 1 1 2 3 4 4 4 4 1 ;; 1 1 1 1 1 1 2 1 1 3 3 1 2 2 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 2 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 2 3 3 2 2 2 4 ;; 1 1 1 1 1 1 1 1 2 2 1 3 3 3 ;; 1 1 1 1 1 1 2 2 2 3 3 2 2 3 ;; 1 1 1 1 1 2 2 2 2 2 2 2 2 2 ;</t>
   </si>
   <si>
     <t xml:space="preserve">flags</t>
   </si>
   <si>
-    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 3 2 4 4 ;; 1 1 2 3 2 4 4 ;; 1 2 3 1 2 3 4 ;; 1 1 2 2 3 3 4 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 3 4 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 2 3 3 1 4 3 ;; 1 2 1 1 3 3 1 ;; 1 1 2 2 1 3 2 ;; 1 1 2 2 1 1 1 ;; 1 2 1 3 2 3 1 ;; 1 2 1 2 1 1 2 ;; 1 1 1 1 2 1 2 ;; 1 1 1 2 2 1 2 ;; 1 1 1 2 2 3 3 ;; 1 2 1 1 2 3 3 ;[0] ****\n</t>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 3 4 ;; 1 1 1 2 2 2 3 ;; 1 1 1 2 2 2 3 ;; 1 1 1 2 3 2 3 ;; 1 1 2 2 3 3 1 ;; 1 1 1 2 2 3 3 ;; 1 1 1 2 2 3 3 ;; 1 1 2 3 2 3 4 ;; 1 1 1 2 2 3 3 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 3 1 4 3 ;; 1 1 2 1 3 2 3 ;; 1 1 2 3 1 3 1 ;; 1 2 3 2 2 2 2 ;; 1 1 1 2 2 2 2 ;; 1 1 2 2 2 2 1 ;; 1 1 1 1 2 1 2 ;; 1 1 1 2 1 2 2 ;; 1 1 1 2 2 3 3 ;; 1 1 2 1 2 3 3 </t>
   </si>
   <si>
     <t xml:space="preserve">genbase</t>
@@ -298,22 +298,22 @@
     <t xml:space="preserve">TEST</t>
   </si>
   <si>
-    <t xml:space="preserve">; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;[0] ****\n</t>
+    <t xml:space="preserve">; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;</t>
   </si>
   <si>
     <t xml:space="preserve">; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;; 1 2 3 4 5 6 7 8 9 10 11 12 13 14 ;</t>
   </si>
   <si>
-    <t xml:space="preserve">; 1 1 1 1 1 1 2 1 2 2 3 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 1 2 2 2 1 2 3 ;; 1 1 1 1 1 1 1 1 2 1 2 1 1 1 ;; 1 1 1 1 1 1 1 1 2 3 3 1 3 1 ;; 1 1 1 1 1 1 1 1 1 2 2 2 2 3 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 3 ;; 1 1 1 1 1 1 2 2 2 3 3 2 2 2 ;; 1 1 1 1 1 1 1 2 2 2 2 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 4 4 ;; 1 1 2 2 3 4 3 ;; 1 1 2 3 2 4 3 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 4 4 ;; 1 2 3 4 5 6 7 ;[0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 2 3 4 3 3 3 ;; 1 1 2 2 1 3 2 ;; 1 2 3 4 5 6 2 ;; 1 1 1 2 2 1 1 ;; 1 2 1 2 1 1 2 ;; 1 1 1 2 1 3 3 ;; 1 1 1 2 2 1 2 ;; 1 1 1 2 2 3 2 ;; 1 2 1 1 3 2 3 ;; 1 1 2 1 3 4 5 ;</t>
+    <t xml:space="preserve">; 1 1 1 1 1 1 2 2 2 1 1 3 4 2 ;; 1 1 1 1 1 1 1 2 2 2 3 2 2 2 ;; 1 1 1 1 1 1 2 2 2 3 3 2 2 3 ;; 1 1 1 1 1 2 3 2 3 2 3 4 2 3 ;; 1 1 1 1 1 1 1 1 1 2 2 2 3 1 ;; 1 1 1 1 1 2 1 1 1 2 3 2 2 3 ;; 1 1 1 1 1 1 1 2 3 2 2 2 2 1 ;; 1 1 1 1 1 1 2 2 2 3 4 1 1 2 ;; 1 1 1 1 1 2 3 3 4 1 1 2 1 2 ;; 1 1 1 1 1 1 2 2 3 3 1 2 2 3 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 1 2 1 3 3 3 ;; 1 2 3 4 5 6 7 ;; 1 1 1 2 2 3 3 ;; 1 1 1 2 2 3 3 ;; 1 1 1 1 2 2 2 ;; 1 1 1 2 2 3 3 ;; 1 1 1 2 2 1 2 ;; 1 1 2 1 2 3 3 ;; 1 2 3 4 5 6 7 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 3 5 ;; 1 1 2 3 1 3 3 ;; 1 2 2 3 2 4 2 ;; 1 1 1 2 2 2 2 ;; 1 1 2 2 2 2 1 ;; 1 1 1 2 1 1 2 ;; 1 1 1 2 1 2 2 ;; 1 1 1 2 3 4 3 ;; 1 1 2 1 3 2 3 ;; 1 2 3 4 1 1 1 ;</t>
   </si>
   <si>
     <t xml:space="preserve">AUCPR</t>
@@ -325,28 +325,28 @@
     <t xml:space="preserve">Training AUROC of the best test Invidual</t>
   </si>
   <si>
-    <t xml:space="preserve">; 1 1 2 1 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 2 1 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 1 2 2 3 3 1 2 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 5 4 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 3 4 2 2 3 3 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;; 1 1 1 1 1 1 1 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 1 2 2 2 ;; 1 1 2 1 2 2 ;; 1 1 1 2 2 2 ;[0] ****\n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">; 1 2 3 1 1 4 2 2 3 3 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 2 3 1 4 2 3 4 5 5 1 2 3 4 ;; 1 1 1 2 2 3 3 4 2 3 4 4 5 5 ;; 1 1 1 2 3 2 3 2 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 4 4 5 3 4 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;; 1 1 1 2 2 2 3 3 3 4 4 4 5 5 ;[0] ****\n</t>
+    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 2 2 1 3 4 3 4 5 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 1 ;; 1 1 1 1 1 1 1 1 2 3 3 3 3 1 ;; 1 1 1 1 1 1 1 1 2 3 3 1 4 1 ;; 1 1 1 1 1 1 1 1 2 1 2 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 2 2 3 4 2 2 5 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 1 1 1 1 1 1 1 ;; 1 1 1 1 1 2 2 3 2 2 1 2 2 2 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 3 2 4 4 ;; 1 1 2 3 2 4 4 ;; 1 2 3 1 2 3 4 ;; 1 1 2 2 3 3 4 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 3 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 3 1 4 3 ;; 1 2 1 1 3 3 1 ;; 1 1 2 2 1 3 2 ;; 1 1 2 2 1 1 1 ;; 1 2 1 3 2 3 1 ;; 1 2 1 2 1 1 2 ;; 1 1 1 1 2 1 2 ;; 1 1 1 2 2 1 2 ;; 1 1 1 2 2 3 3 ;; 1 2 1 1 2 3 3 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 1 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;; 1 1 1 1 1 2 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 1 1 1 1 1 2 1 2 2 3 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;; 1 1 1 1 1 1 1 1 2 2 2 1 2 3 ;; 1 1 1 1 1 1 1 1 2 1 2 1 1 1 ;; 1 1 1 1 1 1 1 1 2 3 3 1 3 1 ;; 1 1 1 1 1 1 1 1 1 2 2 2 2 3 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 3 ;; 1 1 1 1 1 1 2 2 2 3 3 2 2 2 ;; 1 1 1 1 1 1 1 2 2 2 2 2 2 2 ;; 1 1 1 1 1 1 1 1 2 2 2 2 2 1 ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 4 4 ;; 1 1 2 2 3 4 3 ;; 1 1 2 3 2 4 3 ;; 1 2 3 4 5 6 7 ;; 1 2 3 4 5 6 7 ;; 1 1 2 2 3 4 4 ;; 1 2 3 4 5 6 7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">; 1 2 3 4 3 3 3 ;; 1 1 2 2 1 3 2 ;; 1 2 3 4 5 6 2 ;; 1 1 1 2 2 1 1 ;; 1 2 1 2 1 1 2 ;; 1 1 1 2 1 3 3 ;; 1 1 1 2 2 1 2 ;; 1 1 1 2 2 3 2 ;; 1 2 1 1 3 2 3 ;; 1 1 2 1 3 4 5 ;[</t>
   </si>
   <si>
     <t xml:space="preserve">RESULTS USED IN THE BENELEARN ABSTRACT.  TRAINING VS. TEST</t>
@@ -741,22 +741,19 @@
   </sheetPr>
   <dimension ref="B2:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L87" activeCellId="0" sqref="L87"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="39.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.484693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="8" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.8622448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3979591836735"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.0765306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.4591836734694"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1825,21 +1822,21 @@
   </sheetPr>
   <dimension ref="B3:L58"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H49" activeCellId="0" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.4081632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.3061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.8673469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,16 +1918,16 @@
         <v>79</v>
       </c>
       <c r="C14" s="10" t="n">
-        <v>0.9870408</v>
+        <v>0.9945502</v>
       </c>
       <c r="D14" s="10" t="n">
-        <v>0.604975816666667</v>
+        <v>0.77435105</v>
       </c>
       <c r="E14" s="10" t="n">
-        <v>0.33253325</v>
+        <v>0.48236175</v>
       </c>
       <c r="F14" s="10" t="n">
-        <v>0.691865066666666</v>
+        <v>0.830021083333333</v>
       </c>
       <c r="G14" s="0" t="s">
         <v>80</v>
@@ -1951,16 +1948,16 @@
         <v>82</v>
       </c>
       <c r="C15" s="10" t="n">
-        <v>0.994289</v>
+        <v>0.9973118</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>0.414531835714286</v>
+        <v>0.634399492857143</v>
       </c>
       <c r="E15" s="10" t="n">
-        <v>0.302904028571428</v>
+        <v>0.491676185714286</v>
       </c>
       <c r="F15" s="10" t="n">
-        <v>0.555385614285714</v>
+        <v>0.720757185714286</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>83</v>
@@ -1981,16 +1978,16 @@
         <v>85</v>
       </c>
       <c r="C16" s="10" t="n">
-        <v>0.851295214285714</v>
+        <v>0.748131742857143</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>0.685729128571429</v>
+        <v>0.728722071428571</v>
       </c>
       <c r="E16" s="10" t="n">
-        <v>0.555908514285714</v>
+        <v>0.6592636</v>
       </c>
       <c r="F16" s="10" t="n">
-        <v>0.791426157142857</v>
+        <v>0.719985385714286</v>
       </c>
       <c r="G16" s="0" t="s">
         <v>86</v>
@@ -2105,16 +2102,16 @@
         <v>79</v>
       </c>
       <c r="C25" s="10" t="n">
-        <v>0.988858</v>
+        <v>0.9952582</v>
       </c>
       <c r="D25" s="10" t="n">
-        <v>0.604858733333333</v>
+        <v>0.774763866666667</v>
       </c>
       <c r="E25" s="10" t="n">
-        <v>0.337348183333333</v>
+        <v>0.483692666666667</v>
       </c>
       <c r="F25" s="10" t="n">
-        <v>0.697641533333333</v>
+        <v>0.836423566666666</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>91</v>
@@ -2128,16 +2125,16 @@
         <v>82</v>
       </c>
       <c r="C26" s="10" t="n">
-        <v>0.9944429</v>
+        <v>0.9973671</v>
       </c>
       <c r="D26" s="10" t="n">
-        <v>0.420568057142857</v>
+        <v>0.635671957142857</v>
       </c>
       <c r="E26" s="10" t="n">
-        <v>0.308850907142857</v>
+        <v>0.504111571428571</v>
       </c>
       <c r="F26" s="10" t="n">
-        <v>0.560555621428571</v>
+        <v>0.739800671428571</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>93</v>
@@ -2151,16 +2148,16 @@
         <v>85</v>
       </c>
       <c r="C27" s="10" t="n">
-        <v>0.863012357142857</v>
+        <v>0.761303657142857</v>
       </c>
       <c r="D27" s="10" t="n">
-        <v>0.689682228571429</v>
+        <v>0.724845742857143</v>
       </c>
       <c r="E27" s="10" t="n">
-        <v>0.597549242857143</v>
+        <v>0.6704462</v>
       </c>
       <c r="F27" s="10" t="n">
-        <v>0.811110357142857</v>
+        <v>0.729182757142857</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>95</v>
@@ -2300,22 +2297,22 @@
         <v>79</v>
       </c>
       <c r="C43" s="10" t="n">
-        <v>0.338965466666667</v>
+        <v>0.9870408</v>
       </c>
       <c r="D43" s="10" t="n">
-        <v>0.311827216666667</v>
+        <v>0.604975816666667</v>
       </c>
       <c r="E43" s="10" t="n">
-        <v>0.311827216666667</v>
+        <v>0.33253325</v>
       </c>
       <c r="F43" s="10" t="n">
-        <v>0.311421883333333</v>
+        <v>0.691865066666666</v>
       </c>
       <c r="G43" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H43" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2323,22 +2320,22 @@
         <v>82</v>
       </c>
       <c r="C44" s="10" t="n">
-        <v>0.38217515</v>
+        <v>0.994289</v>
       </c>
       <c r="D44" s="10" t="n">
-        <v>0.302689157142857</v>
+        <v>0.414531835714286</v>
       </c>
       <c r="E44" s="10" t="n">
-        <v>0.302689157142857</v>
+        <v>0.302904028571428</v>
       </c>
       <c r="F44" s="10" t="n">
-        <v>0.302648871428571</v>
+        <v>0.555385614285714</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2346,22 +2343,22 @@
         <v>85</v>
       </c>
       <c r="C45" s="10" t="n">
-        <v>0.7887036</v>
+        <v>0.851295214285714</v>
       </c>
       <c r="D45" s="10" t="n">
-        <v>0.485360485714286</v>
+        <v>0.685729128571429</v>
       </c>
       <c r="E45" s="10" t="n">
-        <v>0.485360485714286</v>
+        <v>0.555908514285714</v>
       </c>
       <c r="F45" s="10" t="n">
-        <v>0.484558685714286</v>
+        <v>0.791426157142857</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2449,22 +2446,22 @@
         <v>79</v>
       </c>
       <c r="C54" s="10" t="n">
-        <v>0.338960066666667</v>
+        <v>0.988858</v>
       </c>
       <c r="D54" s="10" t="n">
-        <v>0.311827216666667</v>
+        <v>0.604858733333333</v>
       </c>
       <c r="E54" s="10" t="n">
-        <v>0.311827216666667</v>
+        <v>0.337348183333333</v>
       </c>
       <c r="F54" s="10" t="n">
-        <v>0.311416183333333</v>
+        <v>0.697641533333333</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2472,22 +2469,22 @@
         <v>82</v>
       </c>
       <c r="C55" s="10" t="n">
-        <v>0.382174657142857</v>
+        <v>0.9944429</v>
       </c>
       <c r="D55" s="10" t="n">
-        <v>0.302689157142857</v>
+        <v>0.420568057142857</v>
       </c>
       <c r="E55" s="10" t="n">
-        <v>0.302689157142857</v>
+        <v>0.308850907142857</v>
       </c>
       <c r="F55" s="10" t="n">
-        <v>0.302648435714286</v>
+        <v>0.560555621428571</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,22 +2492,22 @@
         <v>85</v>
       </c>
       <c r="C56" s="10" t="n">
-        <v>0.788672</v>
+        <v>0.863012357142857</v>
       </c>
       <c r="D56" s="10" t="n">
-        <v>0.485360485714286</v>
+        <v>0.689682228571429</v>
       </c>
       <c r="E56" s="10" t="n">
-        <v>0.485360485714286</v>
+        <v>0.597549242857143</v>
       </c>
       <c r="F56" s="10" t="n">
-        <v>0.4845451</v>
+        <v>0.811110357142857</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2554,9 +2551,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="14" t="s">
@@ -3025,9 +3019,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
-  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">

--- a/results/BruteForce.xlsx
+++ b/results/BruteForce.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="154">
   <si>
     <t xml:space="preserve">Experiments with 10 FCV: train, validation and test sets.</t>
   </si>
@@ -298,6 +298,9 @@
     <t xml:space="preserve">TEST</t>
   </si>
   <si>
+    <t xml:space="preserve">Test (best Validation-partitioning)</t>
+  </si>
+  <si>
     <t xml:space="preserve">; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 ;; 1 2 3 4 5 6 </t>
   </si>
   <si>
@@ -347,6 +350,15 @@
   </si>
   <si>
     <t xml:space="preserve">; 1 2 3 4 3 3 3 ;; 1 1 2 2 1 3 2 ;; 1 2 3 4 5 6 2 ;; 1 1 1 2 2 1 1 ;; 1 2 1 2 1 1 2 ;; 1 1 1 2 1 3 3 ;; 1 1 1 2 2 1 2 ;; 1 1 1 2 2 3 2 ;; 1 2 1 1 3 2 3 ;; 1 1 2 1 3 4 5 ;[</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RunTime BruteForce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training (find a solution with the validation set)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test (time to classify the test using trainvalid)</t>
   </si>
   <si>
     <t xml:space="preserve">RESULTS USED IN THE BENELEARN ABSTRACT.  TRAINING VS. TEST</t>
@@ -741,19 +753,22 @@
   </sheetPr>
   <dimension ref="B2:H65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="32.3979591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.0765306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="31.9948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="37.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1820,23 +1835,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:L58"/>
+  <dimension ref="B3:M65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H49" activeCellId="0" sqref="H49"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.3061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.2704081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="48.8673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.9642857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.9897959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="48.3265306122449"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1859,25 +1875,26 @@
       <c r="D11" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1889,11 +1906,12 @@
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
-      <c r="I12" s="0" t="n">
+      <c r="G12" s="10"/>
+      <c r="J12" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="K12" s="0" t="n">
-        <f aca="false">2^(Classification!I12)</f>
+      <c r="L12" s="0" t="n">
+        <f aca="false">2^(Classification!J12)</f>
         <v>524288</v>
       </c>
     </row>
@@ -1905,11 +1923,12 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
-      <c r="I13" s="0" t="n">
+      <c r="G13" s="10"/>
+      <c r="J13" s="0" t="n">
         <v>374</v>
       </c>
-      <c r="K13" s="0" t="n">
-        <f aca="false">2^(Classification!I13)</f>
+      <c r="L13" s="0" t="n">
+        <f aca="false">2^(Classification!J13)</f>
         <v>3.84785216761665E+112</v>
       </c>
     </row>
@@ -1923,23 +1942,23 @@
       <c r="D14" s="10" t="n">
         <v>0.77435105</v>
       </c>
-      <c r="E14" s="10" t="n">
+      <c r="F14" s="10" t="n">
         <v>0.48236175</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="G14" s="10" t="n">
         <v>0.830021083333333</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="H14" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="I14" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="K14" s="0" t="n">
-        <f aca="false">2^(Classification!I14)</f>
+      <c r="L14" s="0" t="n">
+        <f aca="false">2^(Classification!J14)</f>
         <v>64</v>
       </c>
     </row>
@@ -1953,23 +1972,23 @@
       <c r="D15" s="10" t="n">
         <v>0.634399492857143</v>
       </c>
-      <c r="E15" s="10" t="n">
+      <c r="F15" s="10" t="n">
         <v>0.491676185714286</v>
       </c>
-      <c r="F15" s="10" t="n">
+      <c r="G15" s="10" t="n">
         <v>0.720757185714286</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="H15" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="I15" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="J15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="K15" s="0" t="n">
-        <f aca="false">2^(Classification!I15)</f>
+      <c r="L15" s="0" t="n">
+        <f aca="false">2^(Classification!J15)</f>
         <v>16384</v>
       </c>
     </row>
@@ -1983,23 +2002,23 @@
       <c r="D16" s="10" t="n">
         <v>0.728722071428571</v>
       </c>
-      <c r="E16" s="10" t="n">
+      <c r="F16" s="10" t="n">
         <v>0.6592636</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="G16" s="10" t="n">
         <v>0.719985385714286</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="H16" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="I16" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="K16" s="0" t="n">
-        <f aca="false">2^(Classification!I16)</f>
+      <c r="L16" s="0" t="n">
+        <f aca="false">2^(Classification!J16)</f>
         <v>128</v>
       </c>
     </row>
@@ -2011,11 +2030,12 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="I17" s="0" t="n">
+      <c r="G17" s="10"/>
+      <c r="J17" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="K17" s="0" t="n">
-        <f aca="false">2^(Classification!I17)</f>
+      <c r="L17" s="0" t="n">
+        <f aca="false">2^(Classification!J17)</f>
         <v>134217728</v>
       </c>
     </row>
@@ -2027,11 +2047,12 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="I18" s="0" t="n">
+      <c r="G18" s="10"/>
+      <c r="J18" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="K18" s="0" t="n">
-        <f aca="false">2^(Classification!I18)</f>
+      <c r="L18" s="0" t="n">
+        <f aca="false">2^(Classification!J18)</f>
         <v>2.53530120045646E+030</v>
       </c>
     </row>
@@ -2040,18 +2061,21 @@
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
@@ -2064,20 +2088,23 @@
         <v>90</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="G22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
@@ -2087,6 +2114,7 @@
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
@@ -2096,6 +2124,7 @@
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
@@ -2107,17 +2136,20 @@
       <c r="D25" s="10" t="n">
         <v>0.774763866666667</v>
       </c>
-      <c r="E25" s="10" t="n">
+      <c r="E25" s="0" t="n">
+        <v>0.772435283333333</v>
+      </c>
+      <c r="F25" s="10" t="n">
         <v>0.483692666666667</v>
       </c>
-      <c r="F25" s="10" t="n">
+      <c r="G25" s="10" t="n">
         <v>0.836423566666666</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>91</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>92</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2130,17 +2162,20 @@
       <c r="D26" s="10" t="n">
         <v>0.635671957142857</v>
       </c>
-      <c r="E26" s="10" t="n">
+      <c r="E26" s="0" t="n">
+        <v>0.589142714285714</v>
+      </c>
+      <c r="F26" s="10" t="n">
         <v>0.504111571428571</v>
       </c>
-      <c r="F26" s="10" t="n">
+      <c r="G26" s="10" t="n">
         <v>0.739800671428571</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>93</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>94</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2153,17 +2188,20 @@
       <c r="D27" s="10" t="n">
         <v>0.724845742857143</v>
       </c>
-      <c r="E27" s="10" t="n">
+      <c r="E27" s="0" t="n">
+        <v>0.637816714285714</v>
+      </c>
+      <c r="F27" s="10" t="n">
         <v>0.6704462</v>
       </c>
-      <c r="F27" s="10" t="n">
+      <c r="G27" s="10" t="n">
         <v>0.729182757142857</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>95</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>96</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2174,6 +2212,7 @@
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
@@ -2183,69 +2222,80 @@
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
@@ -2257,22 +2307,23 @@
       <c r="D40" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="I40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
@@ -2282,6 +2333,7 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
@@ -2291,6 +2343,7 @@
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
@@ -2302,17 +2355,18 @@
       <c r="D43" s="10" t="n">
         <v>0.604975816666667</v>
       </c>
-      <c r="E43" s="10" t="n">
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="n">
         <v>0.33253325</v>
       </c>
-      <c r="F43" s="10" t="n">
+      <c r="G43" s="10" t="n">
         <v>0.691865066666666</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="H43" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="0" t="s">
-        <v>100</v>
+      <c r="I43" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2325,17 +2379,18 @@
       <c r="D44" s="10" t="n">
         <v>0.414531835714286</v>
       </c>
-      <c r="E44" s="10" t="n">
+      <c r="E44" s="10"/>
+      <c r="F44" s="10" t="n">
         <v>0.302904028571428</v>
       </c>
-      <c r="F44" s="10" t="n">
+      <c r="G44" s="10" t="n">
         <v>0.555385614285714</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="H44" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="H44" s="0" t="s">
-        <v>101</v>
+      <c r="I44" s="0" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,17 +2403,18 @@
       <c r="D45" s="10" t="n">
         <v>0.685729128571429</v>
       </c>
-      <c r="E45" s="10" t="n">
+      <c r="E45" s="10"/>
+      <c r="F45" s="10" t="n">
         <v>0.555908514285714</v>
       </c>
-      <c r="F45" s="10" t="n">
+      <c r="G45" s="10" t="n">
         <v>0.791426157142857</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>103</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2369,6 +2425,7 @@
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
@@ -2378,24 +2435,28 @@
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
@@ -2408,20 +2469,23 @@
         <v>90</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="G51" s="5" t="s">
+      <c r="G51" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="I51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
@@ -2431,6 +2495,7 @@
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
@@ -2440,6 +2505,7 @@
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
@@ -2451,17 +2517,20 @@
       <c r="D54" s="10" t="n">
         <v>0.604858733333333</v>
       </c>
-      <c r="E54" s="10" t="n">
+      <c r="E54" s="0" t="n">
+        <v>0.595064583333333</v>
+      </c>
+      <c r="F54" s="10" t="n">
         <v>0.337348183333333</v>
       </c>
-      <c r="F54" s="10" t="n">
+      <c r="G54" s="10" t="n">
         <v>0.697641533333333</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="H54" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>104</v>
+      <c r="I54" s="0" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2474,17 +2543,20 @@
       <c r="D55" s="10" t="n">
         <v>0.420568057142857</v>
       </c>
-      <c r="E55" s="10" t="n">
+      <c r="E55" s="0" t="n">
+        <v>0.400292657142857</v>
+      </c>
+      <c r="F55" s="10" t="n">
         <v>0.308850907142857</v>
       </c>
-      <c r="F55" s="10" t="n">
+      <c r="G55" s="10" t="n">
         <v>0.560555621428571</v>
       </c>
-      <c r="G55" s="0" t="s">
+      <c r="H55" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>105</v>
+      <c r="I55" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2497,17 +2569,20 @@
       <c r="D56" s="10" t="n">
         <v>0.689682228571429</v>
       </c>
-      <c r="E56" s="10" t="n">
+      <c r="E56" s="0" t="n">
+        <v>0.617537485714286</v>
+      </c>
+      <c r="F56" s="10" t="n">
         <v>0.597549242857143</v>
       </c>
-      <c r="F56" s="10" t="n">
+      <c r="G56" s="10" t="n">
         <v>0.811110357142857</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>106</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>107</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,6 +2593,7 @@
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
@@ -2527,6 +2603,52 @@
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>5.3604844735</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0.1855323496</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>14307.0187818438</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>4.2036086475</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>1.9101926333</v>
+      </c>
+      <c r="D65" s="0" t="n">
+        <v>0.0455890399</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2547,48 +2669,51 @@
   <dimension ref="B3:N36"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="15" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D15" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>75</v>
@@ -2597,7 +2722,7 @@
         <v>76</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>5</v>
@@ -2617,10 +2742,10 @@
         <v>437.437418749999</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H16" s="16" t="n">
         <v>10480142147</v>
@@ -2649,10 +2774,10 @@
         <v>532.88014375</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H17" s="16" t="n">
         <v>10480142147</v>
@@ -2681,10 +2806,10 @@
         <v>21.1001875</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G18" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>4140</v>
@@ -2713,10 +2838,10 @@
         <v>21.09225</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G19" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>4140</v>
@@ -2745,10 +2870,10 @@
         <v>151.66005</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H20" s="16" t="n">
         <v>10480142147</v>
@@ -2771,10 +2896,10 @@
         <v>208.48348125</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H21" s="16" t="n">
         <v>10480142147</v>
@@ -2803,10 +2928,10 @@
         <v>0.776328571428571</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H22" s="16" t="n">
         <v>190899322</v>
@@ -2826,38 +2951,38 @@
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D29" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>75</v>
@@ -2866,7 +2991,7 @@
         <v>76</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,10 +3005,10 @@
         <v>360.02581875</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H30" s="16" t="n">
         <v>10480142147</v>
@@ -2906,10 +3031,10 @@
         <v>728.3298125</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H31" s="16" t="n">
         <v>10480142147</v>
@@ -2926,10 +3051,10 @@
         <v>15</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -2945,10 +3070,10 @@
         <v>21.0327875</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J33" s="17"/>
     </row>
@@ -2957,7 +3082,7 @@
         <v>20</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H34" s="16"/>
     </row>
@@ -2966,7 +3091,7 @@
         <v>21</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H35" s="16"/>
     </row>
@@ -2981,10 +3106,10 @@
         <v>0.9033</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="H36" s="16" t="n">
         <v>190899322</v>
@@ -3019,29 +3144,32 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3049,7 +3177,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,7 +3185,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3071,10 +3199,10 @@
         <v>21.26382499999</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,10 +3216,10 @@
         <v>21.256375</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3099,7 +3227,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3107,7 +3235,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3121,10 +3249,10 @@
         <v>0.851564285714286</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
